--- a/关于二维数组上下左右.xlsx
+++ b/关于二维数组上下左右.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\C++\hhl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755B1992-B151-47B0-BB79-8EBB6F6ECCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6352489F-5892-4478-BEE0-64088B1454F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>X1</t>
   </si>
@@ -222,6 +222,30 @@
   </si>
   <si>
     <t>所以就可以用K来循环f[k][0]或f[k][1]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>既</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0，0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{-1，0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1，0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0，-1}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0，1}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -407,6 +431,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -423,7 +460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,6 +489,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,16 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -855,11 +895,11 @@
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
@@ -869,11 +909,11 @@
       <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
       <c r="N3" s="7" t="s">
         <v>6</v>
       </c>
@@ -892,11 +932,11 @@
       <c r="S3" s="2">
         <v>0</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
       <c r="W3" s="9" t="s">
         <v>42</v>
       </c>
@@ -1024,13 +1064,13 @@
       <c r="S6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U6" s="17" t="s">
+      <c r="U6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
     </row>
     <row r="7" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
@@ -1040,11 +1080,11 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1117,11 +1157,11 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1140,11 +1180,11 @@
       <c r="S11" s="2">
         <v>0</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="13"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="17"/>
     </row>
     <row r="12" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N12" s="7" t="s">
@@ -1165,39 +1205,59 @@
       <c r="S12" s="2">
         <v>1</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="13"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="17"/>
     </row>
     <row r="13" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="S13" s="18" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="U6:Y6"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T12:V12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/关于二维数组上下左右.xlsx
+++ b/关于二维数组上下左右.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\C++\hhl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6352489F-5892-4478-BEE0-64088B1454F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2179F3-EE07-422C-8702-E445A9FC34DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
